--- a/uploads/文件模板.xlsx
+++ b/uploads/文件模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>材料管理系统批量导入配件信息模板</t>
   </si>
@@ -62,19 +62,22 @@
     <t>备注</t>
   </si>
   <si>
-    <t>透明胶</t>
-  </si>
-  <si>
-    <t>榔头</t>
-  </si>
-  <si>
-    <t>绑带</t>
-  </si>
-  <si>
-    <t>带带</t>
-  </si>
-  <si>
-    <t>我我</t>
+    <t>车号id</t>
+  </si>
+  <si>
+    <t>透明胶1</t>
+  </si>
+  <si>
+    <t>榔头1</t>
+  </si>
+  <si>
+    <t>绑带1</t>
+  </si>
+  <si>
+    <t>带带1</t>
+  </si>
+  <si>
+    <t>我我1</t>
   </si>
   <si>
     <t>无</t>
@@ -1093,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1144,7 +1147,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1181,11 +1184,14 @@
       <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1203,11 +1209,14 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -1225,11 +1234,14 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -1247,11 +1259,14 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
@@ -1269,14 +1284,17 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1291,14 +1309,17 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1313,6 +1334,9 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
+      <c r="M9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3"/>
